--- a/docs/Games to check.xlsx
+++ b/docs/Games to check.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Sherlock Holmes Chapter One</t>
   </si>
@@ -27,6 +27,33 @@
   </si>
   <si>
     <t>Brak zmian</t>
+  </si>
+  <si>
+    <t>LEGO Star Wars: The Skywalker Saga</t>
+  </si>
+  <si>
+    <t>/pl/redirect/b546b263ccb10776783f5734ce2babc3c2063091/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Nowa pozycja</t>
+  </si>
+  <si>
+    <t>Marvel's Midnight Suns</t>
+  </si>
+  <si>
+    <t>/pl/redirect/238b63541ffffb2cf46fecc62001159f2cc1a57a/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Heavenly Bodies</t>
+  </si>
+  <si>
+    <t>/pl/redirect/d6057d3b12a1d0df34488eaeabe80c89383d26b5/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes The Awakened</t>
+  </si>
+  <si>
+    <t>/pl/redirect/7ca3a810e7bec97b0dad242d3568ea665f5cab23/?utm_source=deals%2Findex</t>
   </si>
   <si>
     <t>Nazwa gry</t>
@@ -86,8 +113,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Nazwa gry"/>
+    <tableColumn id="2" name="Stara cena"/>
+    <tableColumn id="3" name="Nowa cena"/>
+    <tableColumn id="4" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Nazwa gry"/>
     <tableColumn id="2" name="Stara cena"/>
@@ -383,31 +423,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -415,16 +455,84 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>180.45</v>
+        <v>181.01</v>
       </c>
       <c r="C2">
-        <v>44.12</v>
+        <v>44.26</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>206.13</v>
+      </c>
+      <c r="C3">
+        <v>61.65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>249</v>
+      </c>
+      <c r="C4">
+        <v>85.66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>74.73999999999999</v>
+      </c>
+      <c r="C5">
+        <v>37.35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>160.89</v>
+      </c>
+      <c r="C6">
+        <v>88.47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -437,13 +545,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>206.13</v>
+      </c>
+      <c r="C2">
+        <v>61.65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>249</v>
+      </c>
+      <c r="C3">
+        <v>85.66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>74.73999999999999</v>
+      </c>
+      <c r="C4">
+        <v>37.35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>160.89</v>
+      </c>
+      <c r="C5">
+        <v>88.47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/docs/Games to check.xlsx
+++ b/docs/Games to check.xlsx
@@ -18,7 +18,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+  <si>
+    <t>LEGO Star Wars: The Skywalker Saga</t>
+  </si>
+  <si>
+    <t>/pl/redirect/b546b263ccb10776783f5734ce2babc3c2063091/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Brak zmian</t>
+  </si>
+  <si>
+    <t>DREDGE</t>
+  </si>
+  <si>
+    <t>/pl/redirect/d4d9efdbe926bf2d65513f2d7909cc2de7f8cdb5/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Heavenly Bodies</t>
+  </si>
+  <si>
+    <t>/pl/redirect/d6057d3b12a1d0df34488eaeabe80c89383d26b5/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Marvel's Midnight Suns</t>
+  </si>
+  <si>
+    <t>/pl/redirect/238b63541ffffb2cf46fecc62001159f2cc1a57a/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Gotham Knights</t>
+  </si>
+  <si>
+    <t>/pl/redirect/1c5fdb6e29209be8a996401b5a1219db67426576/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Back 4 Blood</t>
+  </si>
+  <si>
+    <t>/pl/redirect/87fc19dfb6794e8fb08791180969596607f7a36f/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>One Piece Odyssey</t>
+  </si>
+  <si>
+    <t>/pl/redirect/2513813c869d85ba669594d1139f7813ca4465d2/?utm_source=deals%2Findex</t>
+  </si>
   <si>
     <t>Sherlock Holmes Chapter One</t>
   </si>
@@ -26,34 +71,100 @@
     <t>/pl/redirect/5270c1a5011a226191060f204d9366c397ef625f/?utm_source=deals%2Findex</t>
   </si>
   <si>
-    <t>Brak zmian</t>
-  </si>
-  <si>
-    <t>LEGO Star Wars: The Skywalker Saga</t>
-  </si>
-  <si>
-    <t>/pl/redirect/b546b263ccb10776783f5734ce2babc3c2063091/?utm_source=deals%2Findex</t>
-  </si>
-  <si>
-    <t>Nowa pozycja</t>
-  </si>
-  <si>
-    <t>Marvel's Midnight Suns</t>
-  </si>
-  <si>
-    <t>/pl/redirect/238b63541ffffb2cf46fecc62001159f2cc1a57a/?utm_source=deals%2Findex</t>
-  </si>
-  <si>
-    <t>Heavenly Bodies</t>
-  </si>
-  <si>
-    <t>/pl/redirect/d6057d3b12a1d0df34488eaeabe80c89383d26b5/?utm_source=deals%2Findex</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes The Awakened</t>
-  </si>
-  <si>
-    <t>/pl/redirect/7ca3a810e7bec97b0dad242d3568ea665f5cab23/?utm_source=deals%2Findex</t>
+    <t>FINAL FANTASY XV WINDOWS EDITION</t>
+  </si>
+  <si>
+    <t>/pl/redirect/1d0dc429f9f18bda92fc78bb3efca4b05da44000/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>SCARLET NEXUS</t>
+  </si>
+  <si>
+    <t>/pl/redirect/ec89f8507a77ed5ffc8fe717df18840a7fe37b38/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Tiny Tina's Wonderlands</t>
+  </si>
+  <si>
+    <t>/pl/redirect/f0057754e02fcce6913a158e3ff28c3205f2eb17/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>RESIDENT EVIL 3</t>
+  </si>
+  <si>
+    <t>/pl/redirect/55f77c5ac75fed8161addd8661fc7e31d5dcf4e9/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>The Dark Pictures Anthology: House of Ashes</t>
+  </si>
+  <si>
+    <t>/pl/redirect/88265e757686d174dc468cdc7145549706797ccc/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Tales of Arise</t>
+  </si>
+  <si>
+    <t>/pl/redirect/cebf54d726ae3e9adb882ffb2755187bc020583b/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Outer Wilds</t>
+  </si>
+  <si>
+    <t>/pl/redirect/7459ed1d0cfee3e7662712eca53b83465418826e/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>HUMANKIND</t>
+  </si>
+  <si>
+    <t>/pl/redirect/5449e9d05d9c371645856a0fa0851908df5c4228/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Death's Door</t>
+  </si>
+  <si>
+    <t>/pl/redirect/df53f511d54dfa41a0410f0cfc059c5f86306305/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>The Quarry</t>
+  </si>
+  <si>
+    <t>/pl/redirect/d86818ed0c45f92babd662018d1aa5f66a4134fd/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>What Remains of Edith Finch</t>
+  </si>
+  <si>
+    <t>/pl/redirect/6aaf27e0ee608a04f7ba03cdb2bd84f12643c0e0/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Twelve Minutes</t>
+  </si>
+  <si>
+    <t>/pl/redirect/2764b69b07f65a82b03c8d246d95ffaf026ce21a/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Shadow Warrior 2</t>
+  </si>
+  <si>
+    <t>/pl/redirect/1426ed0e57f8aa95615825ebd14761e6a0998c06/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Yakuza: Like a Dragon</t>
+  </si>
+  <si>
+    <t>/pl/redirect/ed1df0212e1ee21b4e7b1b804811c01f0dc3f611/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>BLACKTAIL</t>
+  </si>
+  <si>
+    <t>/pl/redirect/e4d47dcb4d57fbc8df0c2aa2d255869aca41b16f/?utm_source=deals%2Findex</t>
+  </si>
+  <si>
+    <t>Neon White</t>
+  </si>
+  <si>
+    <t>/pl/redirect/4426250dcc0c8e3f5d0683282f615050a9ecfb2f/?utm_source=deals%2Findex</t>
   </si>
   <si>
     <t>Nazwa gry</t>
@@ -113,21 +224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Nazwa gry"/>
-    <tableColumn id="2" name="Stara cena"/>
-    <tableColumn id="3" name="Nowa cena"/>
-    <tableColumn id="4" name="Link"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Nazwa gry"/>
     <tableColumn id="2" name="Stara cena"/>
@@ -423,31 +521,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -455,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>181.01</v>
+        <v>206.82</v>
       </c>
       <c r="C2">
-        <v>44.26</v>
+        <v>59.27</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -472,67 +569,390 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>206.13</v>
+        <v>100.27</v>
       </c>
       <c r="C3">
-        <v>61.65</v>
+        <v>68.17</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>74.41</v>
+      </c>
+      <c r="C4">
+        <v>37.18</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>249</v>
-      </c>
-      <c r="C4">
-        <v>85.66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>249</v>
+      </c>
+      <c r="C5">
+        <v>85.66</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>74.73999999999999</v>
-      </c>
-      <c r="C5">
-        <v>37.35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>240.7</v>
+      </c>
+      <c r="C6">
+        <v>50.55</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>160.89</v>
-      </c>
-      <c r="C6">
-        <v>88.47</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>199</v>
+      </c>
+      <c r="C7">
+        <v>33.83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>240.7</v>
+      </c>
+      <c r="C8">
+        <v>104.28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>180.51</v>
+      </c>
+      <c r="C9">
+        <v>54.17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>125.99</v>
+      </c>
+      <c r="C10">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>221.56</v>
+      </c>
+      <c r="C11">
+        <v>39.67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>249</v>
+      </c>
+      <c r="C12">
+        <v>70.67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>170.61</v>
+      </c>
+      <c r="C13">
+        <v>32.53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>132.92</v>
+      </c>
+      <c r="C14">
+        <v>37.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>265.88</v>
+      </c>
+      <c r="C15">
+        <v>74.19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>101.89</v>
+      </c>
+      <c r="C16">
+        <v>41.75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>200.57</v>
+      </c>
+      <c r="C17">
+        <v>40.08</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C18">
+        <v>35.41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>269</v>
+      </c>
+      <c r="C19">
+        <v>76.34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>84.16</v>
+      </c>
+      <c r="C20">
+        <v>17.2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>101.89</v>
+      </c>
+      <c r="C21">
+        <v>41.75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>124.05</v>
+      </c>
+      <c r="C22">
+        <v>12.37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>240.7</v>
+      </c>
+      <c r="C23">
+        <v>60.14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>120.33</v>
+      </c>
+      <c r="C24">
+        <v>60.14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>101.89</v>
+      </c>
+      <c r="C25">
+        <v>55.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -545,106 +965,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>206.13</v>
-      </c>
-      <c r="C2">
-        <v>61.65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>249</v>
-      </c>
-      <c r="C3">
-        <v>85.66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>74.73999999999999</v>
-      </c>
-      <c r="C4">
-        <v>37.35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>160.89</v>
-      </c>
-      <c r="C5">
-        <v>88.47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
